--- a/biology/Botanique/Corticiales/Corticiales.xlsx
+++ b/biology/Botanique/Corticiales/Corticiales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Corticiales constituent un ordre des champignons basidiomycètes, qui comporte trois familles: les Corticiaceae, les Punctulariaceae et les Vuilleminiaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ordre des Corticiales ne comportait qu'une famille, les Corticaceae. L'ordre a été établi en 2007 par le Suédois mycologue Karl-Henrik Larsson, basé sur de la recherche phylogénétique moléculaire. Ils ont une distribution cosmopolite[1]. Bien que les limites précises de l'ordre et de ses familles constituantes ne soit pas encore parfaitement définies, il comprend maintenant trois familles: les Corticiaceae ainsi que les familles monogéniques des Punctulariaceae et Vuilleminiaceae, saprophages anciennement classés comme genre.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ordre des Corticiales ne comportait qu'une famille, les Corticaceae. L'ordre a été établi en 2007 par le Suédois mycologue Karl-Henrik Larsson, basé sur de la recherche phylogénétique moléculaire. Ils ont une distribution cosmopolite. Bien que les limites précises de l'ordre et de ses familles constituantes ne soit pas encore parfaitement définies, il comprend maintenant trois familles: les Corticiaceae ainsi que les familles monogéniques des Punctulariaceae et Vuilleminiaceae, saprophages anciennement classés comme genre.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la classe des Agaricomycètes, l'ordre est surtout composé de champignons corticioïdes, mais comprend également des espèces agaricoïdes présentant des anomalies, comme Marchandiomphalina foliacea. Les espèces de cet ordre sont généralement saprotrophes, la plupart d'entre elles pourrissant le bois, mais plusieurs sont parasites des herbes ou des lichens.
 </t>
@@ -573,7 +589,9 @@
           <t>Spécificité économique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">De ceux qui présentent une importance économique il faut noter fuciformis Laetisaria, un pathogène des céréales, et Waitea circinata, la cause d'une maladie du gazon, souvent repérée sur les greens en Poa européens et néozélandais.
 </t>
@@ -606,8 +624,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Famille des Corticiaceae
-genre Acantholichen
+          <t>Famille des Corticiaceae</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>genre Acantholichen
 Acantholichen pannarioides
 genre Ambivina
 Ambivina filobasidia
@@ -678,13 +701,81 @@
 Tretopileus sphaerophorus
 genre Waitea
 Waitea circinata
-Waitea nuda
-Famille des Punctulariaceae
-genre Punctularia
+Waitea nuda</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Corticiales</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corticiales</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie des Corticiales</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Famille des Punctulariaceae</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>genre Punctularia
 Punctularia atropurpurascens
-Punctularia strigosozonata
-Famille des Vuilleminiaceae
-genre Vuilleminia
+Punctularia strigosozonata</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Corticiales</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corticiales</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie des Corticiales</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Famille des Vuilleminiaceae</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>genre Vuilleminia
 11 espèces</t>
         </is>
       </c>
